--- a/Raport miesięczny.xlsx
+++ b/Raport miesięczny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\Macro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A54B4834-764B-4BDB-BE3D-FEFD39267FC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D23210B2-4CDC-4C23-BC84-A3563A172865}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="4590" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="3120" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>BALT ASSISTANCE</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>Janusz Grzybek</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>ginekolog</t>
+  </si>
+  <si>
+    <t>Jan Bączek</t>
   </si>
 </sst>
 </file>
@@ -904,16 +913,34 @@
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
     </row>
-    <row r="10" spans="1:12" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="21"/>
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>7</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="22">
+        <v>43811</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="22">
+        <v>43597</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="J10" s="21"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
